--- a/data/trans_orig/IP11B-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP11B-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9976E442-8982-41E9-9D50-1AB24AE3FA65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7ED57C01-E185-43ED-ACDC-9AEBCB338B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{64C3FCB8-52FA-48A5-9097-42DF46D1FC07}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9B66C6C2-0952-46AC-85C5-A974F07C9BDB}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1784" uniqueCount="647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1784" uniqueCount="642">
   <si>
     <t>Menores según lesión producida por el accidente en 2007 (Tasa respuesta: 5,85%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Otros daños</t>
@@ -107,13 +107,13 @@
     <t>82,83%</t>
   </si>
   <si>
-    <t>23,61%</t>
+    <t>25,26%</t>
   </si>
   <si>
     <t>90,78%</t>
   </si>
   <si>
-    <t>50,53%</t>
+    <t>52,71%</t>
   </si>
   <si>
     <t>Fracturas</t>
@@ -122,13 +122,13 @@
     <t>17,17%</t>
   </si>
   <si>
-    <t>76,39%</t>
+    <t>74,74%</t>
   </si>
   <si>
     <t>9,22%</t>
   </si>
   <si>
-    <t>49,47%</t>
+    <t>47,29%</t>
   </si>
   <si>
     <t>Quemaduras</t>
@@ -137,7 +137,7 @@
     <t>Envenenamiento o Intoxicación (no alimentarias)</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>11,83%</t>
@@ -146,1837 +146,1822 @@
     <t>7,77%</t>
   </si>
   <si>
-    <t>32,32%</t>
+    <t>32,89%</t>
   </si>
   <si>
     <t>3,72%</t>
   </si>
   <si>
-    <t>18,67%</t>
-  </si>
-  <si>
     <t>19,95%</t>
   </si>
   <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>49,05%</t>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>46,16%</t>
   </si>
   <si>
     <t>13,62%</t>
   </si>
   <si>
-    <t>41,2%</t>
+    <t>40,76%</t>
   </si>
   <si>
     <t>16,92%</t>
   </si>
   <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>67,42%</t>
+  </si>
+  <si>
+    <t>40,33%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>66,02%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
+  </si>
+  <si>
+    <t>66,75%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>83,17%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>49,41%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>52,12%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>56,51%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>78,36%</t>
+  </si>
+  <si>
+    <t>74,0%</t>
+  </si>
+  <si>
+    <t>41,79%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>62,45%</t>
+  </si>
+  <si>
+    <t>43,83%</t>
+  </si>
+  <si>
+    <t>77,46%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>43,97%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>51,24%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>78,28%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>68,34%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>52,5%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>58,81%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>68,81%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>50,23%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>76,02%</t>
+  </si>
+  <si>
+    <t>60,3%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>50,42%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>57,29%</t>
+  </si>
+  <si>
+    <t>78,92%</t>
+  </si>
+  <si>
+    <t>65,64%</t>
+  </si>
+  <si>
+    <t>51,4%</t>
+  </si>
+  <si>
+    <t>77,54%</t>
+  </si>
+  <si>
+    <t>67,38%</t>
+  </si>
+  <si>
+    <t>58,3%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según lesión producida por el accidente en 2012 (Tasa respuesta: 8,58%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>68,1%</t>
+  </si>
+  <si>
+    <t>81,59%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>76,9%</t>
+  </si>
+  <si>
+    <t>50,39%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>47,06%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>59,65%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>39,12%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>67,79%</t>
+  </si>
+  <si>
+    <t>47,17%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>75,75%</t>
+  </si>
+  <si>
+    <t>58,4%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>71,96%</t>
+  </si>
+  <si>
+    <t>60,06%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>48,81%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>75,72%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>66,86%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
+  </si>
+  <si>
+    <t>43,99%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>73,1%</t>
+  </si>
+  <si>
+    <t>59,56%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>74,95%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>63,54%</t>
+  </si>
+  <si>
+    <t>41,21%</t>
+  </si>
+  <si>
+    <t>80,29%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>71,21%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
+  </si>
+  <si>
+    <t>59,84%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>42,43%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>65,38%</t>
+  </si>
+  <si>
+    <t>56,01%</t>
+  </si>
+  <si>
+    <t>75,54%</t>
+  </si>
+  <si>
+    <t>64,81%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>69,58%</t>
+  </si>
+  <si>
+    <t>62,2%</t>
+  </si>
+  <si>
+    <t>76,21%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>Menores según lesión producida por el accidente en 2016 (Tasa respuesta: 4,42%)</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>78,26%</t>
+  </si>
+  <si>
+    <t>54,92%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>45,08%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>51,5%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>61,13%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>48,06%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
+  </si>
+  <si>
+    <t>55,33%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>76,31%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>52,0%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>39,51%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>65,86%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>71,0%</t>
+  </si>
+  <si>
+    <t>46,91%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>70,1%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>70,6%</t>
+  </si>
+  <si>
+    <t>54,21%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>53,78%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
     <t>6,45%</t>
   </si>
   <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>67,42%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>66,02%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>66,75%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>81,23%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>52,68%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>56,51%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>76,07%</t>
-  </si>
-  <si>
-    <t>74,0%</t>
-  </si>
-  <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>62,45%</t>
-  </si>
-  <si>
-    <t>44,55%</t>
-  </si>
-  <si>
-    <t>77,74%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>44,3%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>43,13%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>51,79%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>78,28%</t>
-  </si>
-  <si>
-    <t>46,6%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>68,34%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
-  </si>
-  <si>
-    <t>53,75%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>57,83%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>68,81%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>50,23%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>82,34%</t>
-  </si>
-  <si>
-    <t>60,3%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>76,62%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>49,8%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>50,57%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>43,05%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>57,28%</t>
-  </si>
-  <si>
-    <t>78,12%</t>
-  </si>
-  <si>
-    <t>65,64%</t>
-  </si>
-  <si>
-    <t>52,38%</t>
-  </si>
-  <si>
-    <t>78,26%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>58,85%</t>
-  </si>
-  <si>
-    <t>75,59%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según lesión producida por el accidente en 2012 (Tasa respuesta: 8,58%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>81,59%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>76,9%</t>
-  </si>
-  <si>
-    <t>51,21%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
-  </si>
-  <si>
-    <t>60,21%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>44,92%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>67,79%</t>
-  </si>
-  <si>
-    <t>48,49%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>75,75%</t>
-  </si>
-  <si>
-    <t>59,5%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>71,96%</t>
-  </si>
-  <si>
-    <t>60,23%</t>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>54,32%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>67,76%</t>
+  </si>
+  <si>
+    <t>39,66%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>47,37%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>60,39%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>67,75%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>42,53%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>56,96%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>67,58%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>69,3%</t>
+  </si>
+  <si>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>74,14%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>54,25%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>57,66%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>64,26%</t>
+  </si>
+  <si>
+    <t>53,84%</t>
+  </si>
+  <si>
+    <t>73,78%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>Menores según lesión producida por el accidente en 2023 (Tasa respuesta: 2,86%)</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>59,94%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>68,26%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>49,39%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>77,18%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>65,25%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>60,26%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>69,59%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>53,14%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>70,25%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>56,89%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>52,97%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>50,27%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>48,04%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>71,79%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>56,49%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>48,44%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>72,07%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>55,07%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>43,65%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>48,57%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>65,85%</t>
+  </si>
+  <si>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>73,93%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>65,11%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>48,8%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>67,22%</t>
+  </si>
+  <si>
+    <t>65,65%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
   </si>
   <si>
     <t>82,04%</t>
   </si>
   <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>66,86%</t>
-  </si>
-  <si>
-    <t>47,94%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>74,2%</t>
-  </si>
-  <si>
-    <t>59,56%</t>
-  </si>
-  <si>
-    <t>44,34%</t>
-  </si>
-  <si>
-    <t>73,97%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>63,54%</t>
-  </si>
-  <si>
-    <t>44,65%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>72,95%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>60,37%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>42,18%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>65,38%</t>
-  </si>
-  <si>
-    <t>55,9%</t>
-  </si>
-  <si>
-    <t>74,94%</t>
-  </si>
-  <si>
-    <t>75,54%</t>
-  </si>
-  <si>
-    <t>64,72%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>69,58%</t>
-  </si>
-  <si>
-    <t>62,51%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>Menores según lesión producida por el accidente en 2015 (Tasa respuesta: 4,42%)</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>54,92%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>45,08%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>43,77%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>61,13%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>48,06%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
-  </si>
-  <si>
-    <t>55,33%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>76,11%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>46,88%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>64,95%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>71,0%</t>
-  </si>
-  <si>
-    <t>42,41%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>70,1%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>70,6%</t>
-  </si>
-  <si>
-    <t>51,84%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>52,03%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>55,7%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>67,76%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>47,37%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>60,39%</t>
-  </si>
-  <si>
-    <t>36,7%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>53,05%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>71,14%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>40,81%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>67,85%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>35,99%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>67,58%</t>
-  </si>
-  <si>
-    <t>42,12%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>69,3%</t>
-  </si>
-  <si>
-    <t>44,43%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>74,14%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>68,05%</t>
-  </si>
-  <si>
-    <t>55,35%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>57,66%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>72,75%</t>
-  </si>
-  <si>
-    <t>64,26%</t>
-  </si>
-  <si>
-    <t>54,35%</t>
-  </si>
-  <si>
-    <t>73,65%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>Menores según lesión producida por el accidente en 2023 (Tasa respuesta: 2,86%)</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>56,35%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>68,26%</t>
-  </si>
-  <si>
-    <t>49,39%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>77,18%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>69,44%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>64,77%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>65,98%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>74,83%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>61,55%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>55,39%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>77,38%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>48,04%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>71,04%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>53,74%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>41,37%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>72,07%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>57,39%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>49,78%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>68,22%</t>
-  </si>
-  <si>
-    <t>48,57%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>63,99%</t>
-  </si>
-  <si>
-    <t>40,09%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>73,49%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>68,19%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>48,8%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>68,09%</t>
-  </si>
-  <si>
-    <t>65,65%</t>
-  </si>
-  <si>
-    <t>44,62%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
     <t>56,11%</t>
   </si>
   <si>
-    <t>43,84%</t>
-  </si>
-  <si>
-    <t>70,51%</t>
+    <t>41,89%</t>
+  </si>
+  <si>
+    <t>68,37%</t>
   </si>
   <si>
     <t>29,7%</t>
   </si>
   <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>48,08%</t>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>49,63%</t>
   </si>
   <si>
     <t>13,17%</t>
   </si>
   <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
+    <t>33,06%</t>
   </si>
   <si>
     <t>22,52%</t>
   </si>
   <si>
-    <t>35,6%</t>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
   </si>
   <si>
     <t>3,42%</t>
@@ -2391,7 +2376,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F63BF1F-303F-48CB-A913-156BE471B3BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC9D05A0-ABD1-4CF5-8C93-B0D25120FCB0}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2910,7 +2895,7 @@
         <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2925,13 +2910,13 @@
         <v>2045</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -2940,13 +2925,13 @@
         <v>1282</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="M12" s="7">
         <v>5</v>
@@ -2955,13 +2940,13 @@
         <v>3327</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2976,13 +2961,13 @@
         <v>6911</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -2991,13 +2976,13 @@
         <v>6216</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="M13" s="7">
         <v>19</v>
@@ -3006,13 +2991,13 @@
         <v>13127</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3027,13 +3012,13 @@
         <v>1294</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -3042,13 +3027,13 @@
         <v>1186</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
@@ -3057,13 +3042,13 @@
         <v>2480</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3099,7 +3084,7 @@
         <v>12</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M15" s="7">
         <v>0</v>
@@ -3114,7 +3099,7 @@
         <v>12</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3150,7 +3135,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3165,7 +3150,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3221,7 +3206,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -3233,13 +3218,13 @@
         <v>680</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="H18" s="7">
         <v>2</v>
@@ -3248,13 +3233,13 @@
         <v>1189</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M18" s="7">
         <v>3</v>
@@ -3263,13 +3248,13 @@
         <v>1869</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3284,28 +3269,28 @@
         <v>3983</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="H19" s="7">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7">
+        <v>0</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M19" s="7">
         <v>6</v>
@@ -3314,13 +3299,13 @@
         <v>3983</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3335,13 +3320,13 @@
         <v>7743</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H20" s="7">
         <v>9</v>
@@ -3350,13 +3335,13 @@
         <v>5214</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M20" s="7">
         <v>21</v>
@@ -3365,13 +3350,13 @@
         <v>12957</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3386,13 +3371,13 @@
         <v>1298</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
@@ -3401,13 +3386,13 @@
         <v>642</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="M21" s="7">
         <v>3</v>
@@ -3416,13 +3401,13 @@
         <v>1940</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3443,37 +3428,37 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="M22" s="7">
+        <v>0</v>
+      </c>
+      <c r="N22" s="7">
+        <v>0</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="H22" s="7">
-        <v>0</v>
-      </c>
-      <c r="I22" s="7">
-        <v>0</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="M22" s="7">
-        <v>0</v>
-      </c>
-      <c r="N22" s="7">
-        <v>0</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3494,37 +3479,37 @@
         <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H23" s="7">
+        <v>0</v>
+      </c>
+      <c r="I23" s="7">
+        <v>0</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="M23" s="7">
+        <v>0</v>
+      </c>
+      <c r="N23" s="7">
+        <v>0</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="H23" s="7">
-        <v>0</v>
-      </c>
-      <c r="I23" s="7">
-        <v>0</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="M23" s="7">
-        <v>0</v>
-      </c>
-      <c r="N23" s="7">
-        <v>0</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3580,7 +3565,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3598,7 +3583,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -3607,13 +3592,13 @@
         <v>665</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
@@ -3622,13 +3607,13 @@
         <v>665</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3643,13 +3628,13 @@
         <v>487</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -3658,13 +3643,13 @@
         <v>665</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -3673,13 +3658,13 @@
         <v>1153</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3694,13 +3679,13 @@
         <v>6963</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H27" s="7">
         <v>7</v>
@@ -3709,13 +3694,13 @@
         <v>4327</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M27" s="7">
         <v>18</v>
@@ -3724,13 +3709,13 @@
         <v>11290</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3745,28 +3730,28 @@
         <v>719</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" s="7" t="s">
+      <c r="H28" s="7">
+        <v>0</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="H28" s="7">
-        <v>0</v>
-      </c>
-      <c r="I28" s="7">
-        <v>0</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M28" s="7">
         <v>1</v>
@@ -3775,13 +3760,13 @@
         <v>719</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3802,7 +3787,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -3811,13 +3796,13 @@
         <v>674</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M29" s="7">
         <v>1</v>
@@ -3826,13 +3811,13 @@
         <v>674</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3847,14 +3832,14 @@
         <v>725</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>125</v>
-      </c>
       <c r="H30" s="7">
         <v>0</v>
       </c>
@@ -3868,7 +3853,7 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M30" s="7">
         <v>1</v>
@@ -3877,13 +3862,13 @@
         <v>725</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3939,7 +3924,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -3957,37 +3942,37 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0</v>
+      </c>
+      <c r="I32" s="7">
+        <v>0</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="M32" s="7">
+        <v>0</v>
+      </c>
+      <c r="N32" s="7">
+        <v>0</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="H32" s="7">
-        <v>0</v>
-      </c>
-      <c r="I32" s="7">
-        <v>0</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="M32" s="7">
-        <v>0</v>
-      </c>
-      <c r="N32" s="7">
-        <v>0</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4008,7 +3993,7 @@
         <v>12</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H33" s="7">
         <v>3</v>
@@ -4017,13 +4002,13 @@
         <v>2297</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K33" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="K33" s="7" t="s">
+      <c r="L33" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="M33" s="7">
         <v>3</v>
@@ -4032,13 +4017,13 @@
         <v>2297</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q33" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4053,13 +4038,13 @@
         <v>7353</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="H34" s="7">
         <v>6</v>
@@ -4068,13 +4053,13 @@
         <v>4540</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="M34" s="7">
         <v>17</v>
@@ -4083,13 +4068,13 @@
         <v>11893</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4104,13 +4089,13 @@
         <v>2682</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H35" s="7">
         <v>3</v>
@@ -4119,13 +4104,13 @@
         <v>2202</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>65</v>
+        <v>147</v>
       </c>
       <c r="K35" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M35" s="7">
         <v>7</v>
@@ -4134,13 +4119,13 @@
         <v>4884</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4155,14 +4140,14 @@
         <v>650</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="F36" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>155</v>
-      </c>
       <c r="H36" s="7">
         <v>0</v>
       </c>
@@ -4176,7 +4161,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M36" s="7">
         <v>1</v>
@@ -4185,13 +4170,13 @@
         <v>650</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4212,37 +4197,37 @@
         <v>12</v>
       </c>
       <c r="G37" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H37" s="7">
+        <v>0</v>
+      </c>
+      <c r="I37" s="7">
+        <v>0</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="M37" s="7">
+        <v>0</v>
+      </c>
+      <c r="N37" s="7">
+        <v>0</v>
+      </c>
+      <c r="O37" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="H37" s="7">
-        <v>0</v>
-      </c>
-      <c r="I37" s="7">
-        <v>0</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="M37" s="7">
-        <v>0</v>
-      </c>
-      <c r="N37" s="7">
-        <v>0</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4310,13 +4295,13 @@
         <v>680</v>
       </c>
       <c r="E39" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="H39" s="7">
         <v>4</v>
@@ -4325,13 +4310,13 @@
         <v>2587</v>
       </c>
       <c r="J39" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K39" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="K39" s="7" t="s">
+      <c r="L39" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="M39" s="7">
         <v>5</v>
@@ -4340,13 +4325,13 @@
         <v>3266</v>
       </c>
       <c r="O39" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="P39" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="P39" s="7" t="s">
+      <c r="Q39" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -4361,13 +4346,13 @@
         <v>6515</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F40" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="G40" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="H40" s="7">
         <v>6</v>
@@ -4376,10 +4361,10 @@
         <v>4245</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K40" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="L40" s="7" t="s">
         <v>170</v>
@@ -4496,10 +4481,10 @@
         <v>189</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>132</v>
+        <v>190</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4514,13 +4499,13 @@
         <v>650</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H43" s="7">
         <v>1</v>
@@ -4529,13 +4514,13 @@
         <v>674</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K43" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M43" s="7">
         <v>2</v>
@@ -4544,13 +4529,13 @@
         <v>1324</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P43" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -4565,13 +4550,13 @@
         <v>725</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H44" s="7">
         <v>0</v>
@@ -4586,7 +4571,7 @@
         <v>12</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M44" s="7">
         <v>1</v>
@@ -4595,13 +4580,13 @@
         <v>725</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P44" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>201</v>
+        <v>121</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4678,7 +4663,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C12AA79E-6F15-433A-B234-D78FB4400B7E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B0DC08-0639-49CE-89A9-C5234C4956E2}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4906,7 +4891,7 @@
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>18</v>
+        <v>206</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -4934,7 +4919,7 @@
         <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4949,10 +4934,10 @@
         <v>3157</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>208</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>18</v>
@@ -4977,10 +4962,10 @@
         <v>3157</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>208</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>18</v>
@@ -5147,13 +5132,13 @@
         <v>674</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -5168,7 +5153,7 @@
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -5177,13 +5162,13 @@
         <v>674</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5198,13 +5183,13 @@
         <v>695</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -5219,7 +5204,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M12" s="7">
         <v>1</v>
@@ -5228,13 +5213,13 @@
         <v>695</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>214</v>
+        <v>59</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5249,13 +5234,13 @@
         <v>9614</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -5264,28 +5249,28 @@
         <v>7052</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M13" s="7">
         <v>24</v>
       </c>
       <c r="N13" s="7">
-        <v>16665</v>
+        <v>16666</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>224</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5372,7 +5357,7 @@
         <v>12</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M15" s="7">
         <v>1</v>
@@ -5480,7 +5465,7 @@
         <v>31</v>
       </c>
       <c r="N17" s="7">
-        <v>21574</v>
+        <v>21575</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>20</v>
@@ -5494,7 +5479,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -5557,7 +5542,7 @@
         <v>1240</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>11</v>
@@ -5578,7 +5563,7 @@
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -5587,10 +5572,10 @@
         <v>1987</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>250</v>
+        <v>192</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>251</v>
@@ -5677,10 +5662,10 @@
         <v>264</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>265</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M21" s="7">
         <v>8</v>
@@ -5689,13 +5674,13 @@
         <v>5250</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5710,13 +5695,13 @@
         <v>1304</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -5725,13 +5710,13 @@
         <v>1169</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M22" s="7">
         <v>4</v>
@@ -5740,13 +5725,13 @@
         <v>2473</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5767,7 +5752,7 @@
         <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -5782,7 +5767,7 @@
         <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -5797,7 +5782,7 @@
         <v>12</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5853,7 +5838,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5865,13 +5850,13 @@
         <v>2913</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -5886,7 +5871,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M25" s="7">
         <v>4</v>
@@ -5895,13 +5880,13 @@
         <v>2912</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5916,13 +5901,13 @@
         <v>1302</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H26" s="7">
         <v>6</v>
@@ -5931,13 +5916,13 @@
         <v>4147</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M26" s="7">
         <v>8</v>
@@ -5946,13 +5931,13 @@
         <v>5450</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5967,13 +5952,13 @@
         <v>12129</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H27" s="7">
         <v>6</v>
@@ -5982,13 +5967,13 @@
         <v>3738</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M27" s="7">
         <v>26</v>
@@ -5997,13 +5982,13 @@
         <v>15867</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6018,13 +6003,13 @@
         <v>1214</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>301</v>
+        <v>185</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -6039,7 +6024,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M28" s="7">
         <v>2</v>
@@ -6069,7 +6054,7 @@
         <v>584</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>214</v>
+        <v>59</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>11</v>
@@ -6105,7 +6090,7 @@
         <v>11</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>244</v>
+        <v>308</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6126,7 +6111,7 @@
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -6141,7 +6126,7 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -6156,7 +6141,7 @@
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>201</v>
+        <v>309</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6212,7 +6197,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -6224,13 +6209,13 @@
         <v>672</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -6239,13 +6224,13 @@
         <v>670</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="M32" s="7">
         <v>2</v>
@@ -6254,13 +6239,13 @@
         <v>1342</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6275,13 +6260,13 @@
         <v>2367</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>248</v>
+        <v>317</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -6296,7 +6281,7 @@
         <v>12</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="M33" s="7">
         <v>3</v>
@@ -6305,13 +6290,13 @@
         <v>2367</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6326,13 +6311,13 @@
         <v>12308</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="H34" s="7">
         <v>16</v>
@@ -6341,10 +6326,10 @@
         <v>12039</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>18</v>
@@ -6356,13 +6341,13 @@
         <v>24347</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6377,13 +6362,13 @@
         <v>4025</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -6398,7 +6383,7 @@
         <v>12</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="M35" s="7">
         <v>5</v>
@@ -6407,13 +6392,13 @@
         <v>4025</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6434,7 +6419,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -6449,7 +6434,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -6464,7 +6449,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6485,7 +6470,7 @@
         <v>12</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -6500,7 +6485,7 @@
         <v>12</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -6515,7 +6500,7 @@
         <v>12</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6583,13 +6568,13 @@
         <v>5369</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="H39" s="7">
         <v>2</v>
@@ -6598,13 +6583,13 @@
         <v>1326</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="K39" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="M39" s="7">
         <v>9</v>
@@ -6613,13 +6598,13 @@
         <v>6695</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -6634,13 +6619,13 @@
         <v>5604</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="H40" s="7">
         <v>7</v>
@@ -6649,13 +6634,13 @@
         <v>4895</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="M40" s="7">
         <v>15</v>
@@ -6664,13 +6649,13 @@
         <v>10499</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>189</v>
+        <v>261</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -6685,13 +6670,13 @@
         <v>47977</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>353</v>
+        <v>182</v>
       </c>
       <c r="H41" s="7">
         <v>56</v>
@@ -6700,13 +6685,13 @@
         <v>39064</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="M41" s="7">
         <v>127</v>
@@ -6715,13 +6700,13 @@
         <v>87041</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>27</v>
+        <v>361</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -6736,13 +6721,13 @@
         <v>11860</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>141</v>
+        <v>364</v>
       </c>
       <c r="H42" s="7">
         <v>6</v>
@@ -6751,13 +6736,13 @@
         <v>3943</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="M42" s="7">
         <v>21</v>
@@ -6766,13 +6751,13 @@
         <v>15803</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>115</v>
+        <v>369</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -6787,13 +6772,13 @@
         <v>2567</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="H43" s="7">
         <v>3</v>
@@ -6802,13 +6787,13 @@
         <v>1782</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="M43" s="7">
         <v>7</v>
@@ -6817,13 +6802,13 @@
         <v>4349</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>372</v>
+        <v>157</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -6844,7 +6829,7 @@
         <v>12</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="H44" s="7">
         <v>1</v>
@@ -6853,13 +6838,13 @@
         <v>702</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="M44" s="7">
         <v>1</v>
@@ -6868,13 +6853,13 @@
         <v>702</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="P44" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>378</v>
+        <v>200</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -6951,7 +6936,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1F6B3C4-92FB-4B03-9970-0A7B82F2C803}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4866E927-5911-43E0-A1D9-9601FEEF2A91}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6968,7 +6953,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7081,7 +7066,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -7096,7 +7081,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -7132,7 +7117,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -7147,7 +7132,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -7177,7 +7162,7 @@
         <v>2024</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>179</v>
+        <v>385</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>11</v>
@@ -7198,7 +7183,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="M6" s="7">
         <v>2</v>
@@ -7207,7 +7192,7 @@
         <v>2024</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>11</v>
@@ -7228,7 +7213,7 @@
         <v>563</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
@@ -7246,7 +7231,7 @@
         <v>18</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>20</v>
@@ -7258,7 +7243,7 @@
         <v>1662</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
@@ -7285,7 +7270,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -7300,7 +7285,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -7336,7 +7321,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -7351,7 +7336,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -7440,7 +7425,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -7449,13 +7434,13 @@
         <v>560</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -7464,13 +7449,13 @@
         <v>560</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7485,13 +7470,13 @@
         <v>1475</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -7515,13 +7500,13 @@
         <v>1475</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7536,13 +7521,13 @@
         <v>4520</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -7551,13 +7536,13 @@
         <v>2834</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
@@ -7566,13 +7551,13 @@
         <v>7353</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7587,13 +7572,13 @@
         <v>700</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -7602,13 +7587,13 @@
         <v>682</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -7617,13 +7602,13 @@
         <v>1382</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7638,13 +7623,13 @@
         <v>700</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="H15" s="7">
         <v>3</v>
@@ -7653,13 +7638,13 @@
         <v>1821</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>91</v>
+        <v>415</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="M15" s="7">
         <v>4</v>
@@ -7668,13 +7653,13 @@
         <v>2521</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -7695,7 +7680,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -7725,7 +7710,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7781,7 +7766,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -7799,7 +7784,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -7814,7 +7799,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -7829,7 +7814,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7844,13 +7829,13 @@
         <v>1220</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -7859,13 +7844,13 @@
         <v>617</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -7874,13 +7859,13 @@
         <v>1838</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7895,13 +7880,13 @@
         <v>7869</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="H20" s="7">
         <v>10</v>
@@ -7910,13 +7895,13 @@
         <v>6278</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="M20" s="7">
         <v>22</v>
@@ -7925,13 +7910,13 @@
         <v>14146</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7946,13 +7931,13 @@
         <v>652</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="H21" s="7">
         <v>3</v>
@@ -7961,13 +7946,13 @@
         <v>2060</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="M21" s="7">
         <v>4</v>
@@ -7976,13 +7961,13 @@
         <v>2712</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7997,13 +7982,13 @@
         <v>715</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>44</v>
+        <v>445</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -8018,7 +8003,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -8027,13 +8012,13 @@
         <v>715</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8048,13 +8033,13 @@
         <v>626</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>443</v>
+        <v>187</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -8069,7 +8054,7 @@
         <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M23" s="7">
         <v>1</v>
@@ -8078,13 +8063,13 @@
         <v>626</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8140,7 +8125,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -8158,7 +8143,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -8167,13 +8152,13 @@
         <v>601</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
@@ -8182,13 +8167,13 @@
         <v>601</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8203,13 +8188,13 @@
         <v>549</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>417</v>
+        <v>456</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -8224,7 +8209,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -8233,13 +8218,13 @@
         <v>549</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>201</v>
+        <v>309</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8254,13 +8239,13 @@
         <v>5347</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="H27" s="7">
         <v>4</v>
@@ -8269,13 +8254,13 @@
         <v>2115</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="M27" s="7">
         <v>12</v>
@@ -8284,13 +8269,13 @@
         <v>7462</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8305,13 +8290,13 @@
         <v>1363</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>462</v>
+        <v>273</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -8320,13 +8305,13 @@
         <v>1092</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="M28" s="7">
         <v>4</v>
@@ -8335,13 +8320,13 @@
         <v>2455</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8356,13 +8341,13 @@
         <v>634</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>469</v>
+        <v>190</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>393</v>
+        <v>474</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -8371,13 +8356,13 @@
         <v>657</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="M29" s="7">
         <v>2</v>
@@ -8386,13 +8371,13 @@
         <v>1291</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8413,7 +8398,7 @@
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -8428,7 +8413,7 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -8443,7 +8428,7 @@
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8499,7 +8484,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -8511,13 +8496,13 @@
         <v>741</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>476</v>
+        <v>70</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -8541,13 +8526,13 @@
         <v>741</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8562,13 +8547,13 @@
         <v>692</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -8592,13 +8577,13 @@
         <v>692</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="P33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8613,13 +8598,13 @@
         <v>7954</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="H34" s="7">
         <v>3</v>
@@ -8628,10 +8613,10 @@
         <v>2248</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>18</v>
@@ -8643,13 +8628,13 @@
         <v>10202</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>489</v>
+        <v>430</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8664,13 +8649,13 @@
         <v>764</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
@@ -8679,13 +8664,13 @@
         <v>706</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="M35" s="7">
         <v>2</v>
@@ -8694,13 +8679,13 @@
         <v>1470</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>72</v>
+        <v>375</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8715,13 +8700,13 @@
         <v>1619</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>495</v>
+        <v>303</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -8745,13 +8730,13 @@
         <v>1619</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8772,7 +8757,7 @@
         <v>12</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -8802,7 +8787,7 @@
         <v>12</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8870,13 +8855,13 @@
         <v>741</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>500</v>
+        <v>96</v>
       </c>
       <c r="H39" s="7">
         <v>2</v>
@@ -8885,13 +8870,13 @@
         <v>1160</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K39" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="M39" s="7">
         <v>3</v>
@@ -8900,13 +8885,13 @@
         <v>1901</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>504</v>
+        <v>199</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -8921,13 +8906,13 @@
         <v>3936</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F40" s="7" t="s">
         <v>505</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="G40" s="7" t="s">
         <v>506</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>507</v>
       </c>
       <c r="H40" s="7">
         <v>1</v>
@@ -8936,13 +8921,13 @@
         <v>617</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L40" s="7" t="s">
         <v>508</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>509</v>
       </c>
       <c r="M40" s="7">
         <v>7</v>
@@ -8951,13 +8936,13 @@
         <v>4553</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="P40" s="7" t="s">
         <v>510</v>
       </c>
-      <c r="P40" s="7" t="s">
+      <c r="Q40" s="7" t="s">
         <v>511</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -8972,13 +8957,13 @@
         <v>27714</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="G41" s="7" t="s">
         <v>514</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>515</v>
       </c>
       <c r="H41" s="7">
         <v>21</v>
@@ -8987,13 +8972,13 @@
         <v>13474</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="K41" s="7" t="s">
         <v>516</v>
       </c>
-      <c r="K41" s="7" t="s">
+      <c r="L41" s="7" t="s">
         <v>517</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>518</v>
       </c>
       <c r="M41" s="7">
         <v>60</v>
@@ -9002,13 +8987,13 @@
         <v>41189</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="P41" s="7" t="s">
         <v>519</v>
       </c>
-      <c r="P41" s="7" t="s">
+      <c r="Q41" s="7" t="s">
         <v>520</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -9023,13 +9008,13 @@
         <v>4041</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="F42" s="7" t="s">
         <v>522</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="G42" s="7" t="s">
         <v>523</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>524</v>
       </c>
       <c r="H42" s="7">
         <v>8</v>
@@ -9038,13 +9023,13 @@
         <v>5639</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="K42" s="7" t="s">
         <v>525</v>
       </c>
-      <c r="K42" s="7" t="s">
+      <c r="L42" s="7" t="s">
         <v>526</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>527</v>
       </c>
       <c r="M42" s="7">
         <v>14</v>
@@ -9053,13 +9038,13 @@
         <v>9680</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="P42" s="7" t="s">
         <v>528</v>
       </c>
-      <c r="P42" s="7" t="s">
+      <c r="Q42" s="7" t="s">
         <v>529</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -9074,13 +9059,13 @@
         <v>3667</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="F43" s="7" t="s">
         <v>531</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="G43" s="7" t="s">
         <v>532</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>533</v>
       </c>
       <c r="H43" s="7">
         <v>4</v>
@@ -9089,13 +9074,13 @@
         <v>2478</v>
       </c>
       <c r="J43" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="L43" s="7" t="s">
         <v>534</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>535</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>536</v>
       </c>
       <c r="M43" s="7">
         <v>9</v>
@@ -9104,13 +9089,13 @@
         <v>6145</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>537</v>
+        <v>346</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>538</v>
+        <v>268</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>539</v>
+        <v>156</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -9125,13 +9110,13 @@
         <v>626</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="H44" s="7">
         <v>0</v>
@@ -9146,7 +9131,7 @@
         <v>12</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="M44" s="7">
         <v>1</v>
@@ -9155,13 +9140,13 @@
         <v>626</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="P44" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -9238,7 +9223,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE151F71-037E-401A-802B-3BD9DA9EC6B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44F051FB-A181-48F6-8B84-9FB706B7E9E5}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9255,7 +9240,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -9381,7 +9366,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -9396,7 +9381,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -9430,7 +9415,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -9445,7 +9430,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -9479,7 +9464,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -9494,7 +9479,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -9525,7 +9510,7 @@
         <v>18</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>20</v>
@@ -9540,7 +9525,7 @@
         <v>18</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>20</v>
@@ -9577,7 +9562,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -9592,7 +9577,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -9626,7 +9611,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -9641,7 +9626,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -9722,13 +9707,13 @@
         <v>1003</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -9737,13 +9722,13 @@
         <v>1003</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -9809,7 +9794,7 @@
         <v>512</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
@@ -9824,10 +9809,10 @@
         <v>2157</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>348</v>
+        <v>547</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>18</v>
@@ -9839,13 +9824,13 @@
         <v>2669</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -9860,7 +9845,7 @@
         <v>1732</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>11</v>
@@ -9890,13 +9875,13 @@
         <v>1732</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>343</v>
+        <v>553</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -10054,7 +10039,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -10072,7 +10057,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -10087,7 +10072,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -10102,7 +10087,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -10123,7 +10108,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -10138,7 +10123,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -10153,7 +10138,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -10168,10 +10153,10 @@
         <v>4735</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>18</v>
@@ -10186,7 +10171,7 @@
         <v>18</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>20</v>
@@ -10198,10 +10183,10 @@
         <v>9409</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>18</v>
@@ -10219,13 +10204,13 @@
         <v>801</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -10240,7 +10225,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="M21" s="7">
         <v>1</v>
@@ -10249,13 +10234,13 @@
         <v>801</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -10276,7 +10261,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -10291,7 +10276,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -10306,7 +10291,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -10327,7 +10312,7 @@
         <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -10342,7 +10327,7 @@
         <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -10357,7 +10342,7 @@
         <v>12</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -10413,7 +10398,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -10440,13 +10425,13 @@
         <v>847</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>568</v>
+        <v>402</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>78</v>
+        <v>565</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
@@ -10455,13 +10440,13 @@
         <v>847</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -10476,13 +10461,13 @@
         <v>2772</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -10491,13 +10476,13 @@
         <v>1271</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="M26" s="7">
         <v>5</v>
@@ -10506,13 +10491,13 @@
         <v>4043</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -10527,13 +10512,13 @@
         <v>3439</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="H27" s="7">
         <v>5</v>
@@ -10542,13 +10527,13 @@
         <v>3223</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="M27" s="7">
         <v>9</v>
@@ -10557,13 +10542,13 @@
         <v>6661</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -10578,13 +10563,13 @@
         <v>1245</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -10593,13 +10578,13 @@
         <v>1070</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>24</v>
+        <v>588</v>
       </c>
       <c r="M28" s="7">
         <v>4</v>
@@ -10608,13 +10593,13 @@
         <v>2316</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -10650,7 +10635,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -10665,7 +10650,7 @@
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -10701,7 +10686,7 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -10716,7 +10701,7 @@
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10772,7 +10757,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -10784,13 +10769,13 @@
         <v>565</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>594</v>
+        <v>97</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -10799,13 +10784,13 @@
         <v>522</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="M32" s="7">
         <v>2</v>
@@ -10814,13 +10799,13 @@
         <v>1087</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10835,13 +10820,13 @@
         <v>1483</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>599</v>
+        <v>523</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -10865,13 +10850,13 @@
         <v>1483</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="P33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -10886,13 +10871,13 @@
         <v>2249</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>570</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>603</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>604</v>
       </c>
       <c r="H34" s="7">
         <v>2</v>
@@ -10901,7 +10886,7 @@
         <v>1238</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>11</v>
@@ -10916,13 +10901,13 @@
         <v>3488</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>291</v>
+        <v>602</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10937,13 +10922,13 @@
         <v>2876</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
@@ -10952,13 +10937,13 @@
         <v>789</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>612</v>
+        <v>18</v>
       </c>
       <c r="M35" s="7">
         <v>5</v>
@@ -10967,13 +10952,13 @@
         <v>3665</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>613</v>
+        <v>487</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -10994,7 +10979,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -11024,7 +11009,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -11045,7 +11030,7 @@
         <v>12</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -11075,7 +11060,7 @@
         <v>12</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -11143,13 +11128,13 @@
         <v>565</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>616</v>
+        <v>283</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="H39" s="7">
         <v>4</v>
@@ -11158,13 +11143,13 @@
         <v>2372</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>35</v>
+        <v>614</v>
       </c>
       <c r="M39" s="7">
         <v>5</v>
@@ -11173,13 +11158,13 @@
         <v>2937</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -11194,13 +11179,13 @@
         <v>4255</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>624</v>
+        <v>568</v>
       </c>
       <c r="H40" s="7">
         <v>2</v>
@@ -11209,13 +11194,13 @@
         <v>1272</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>170</v>
+        <v>620</v>
       </c>
       <c r="M40" s="7">
         <v>7</v>
@@ -11224,13 +11209,13 @@
         <v>5526</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -11245,13 +11230,13 @@
         <v>10935</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="H41" s="7">
         <v>16</v>
@@ -11260,13 +11245,13 @@
         <v>11292</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="M41" s="7">
         <v>29</v>
@@ -11275,13 +11260,13 @@
         <v>22227</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -11296,13 +11281,13 @@
         <v>6655</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="H42" s="7">
         <v>4</v>
@@ -11311,13 +11296,13 @@
         <v>2265</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>642</v>
+        <v>447</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="M42" s="7">
         <v>14</v>
@@ -11326,13 +11311,13 @@
         <v>8920</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>55</v>
+        <v>639</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -11353,7 +11338,7 @@
         <v>12</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H43" s="7">
         <v>0</v>
@@ -11368,7 +11353,7 @@
         <v>12</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="M43" s="7">
         <v>0</v>
@@ -11383,7 +11368,7 @@
         <v>12</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -11404,7 +11389,7 @@
         <v>12</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H44" s="7">
         <v>0</v>
@@ -11419,7 +11404,7 @@
         <v>12</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="M44" s="7">
         <v>0</v>
@@ -11434,7 +11419,7 @@
         <v>12</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
